--- a/ApolloQA/Data/RatingManual/GA/VA00051.IsVehicleLevelSafetyFeaturesFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00051.IsVehicleLevelSafetyFeaturesFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00051.IsVehicleLevelSafetyFeaturesFactors" sheetId="1" r:id="R25751f2ac6744b32"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00051.IsVehicleLevelSafetyFeaturesFactors" sheetId="1" r:id="R01f99a519fad45c2"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,15 +12,15 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Safety Features</x:v>
+        <x:v>Organization Type</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Safety Features Factor</x:v>
+        <x:v>Organization Type Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>No</x:v>
+        <x:v>Churches and Religious Organizations</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
@@ -28,7 +28,119 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>Yes</x:v>
+        <x:v>Corporation</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Counties/Townships/Parishes, Etc.</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Districts/Precincts</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Federal</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Indian Tribes</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Individual</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.3022</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>LLC</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Municipality</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Other</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Other Non-Profit Associations and Organizations</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Partnership</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Rural</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Schools</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Social Service Agencies and Organizations</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>States</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
